--- a/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_7_square_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_7_square_01_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.99000000000062</v>
+        <v>25.65000000000057</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.810691201582674e-16</v>
+        <v>2.846725704167068e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>48.97935853319738</v>
+        <v>53.40149114864229</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[39.407827804476355, 58.5508892619184]</t>
+          <t>[44.34173254075646, 62.46124975652811]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.855395060678657</v>
+        <v>1.628973968528041</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.641552918091965, 2.0692372032653497]</t>
+          <t>[1.4402897250691948, 1.8176582119868874]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>60.04535868154306</v>
+        <v>64.78791272394777</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[54.49330291924666, 65.59741444383947]</t>
+          <t>[58.93545768119077, 70.64036776670477]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.31527527527571</v>
+        <v>19.00000000000042</v>
       </c>
       <c r="X2" t="n">
-        <v>17.43073073073115</v>
+        <v>18.22972972973013</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.19981981982028</v>
+        <v>19.77027027027071</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.39000000000053</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,30 +661,30 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.810691201582674e-16</v>
+        <v>2.846725704167068e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>45.85087623655155</v>
+        <v>44.04135933414456</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[35.15790588705323, 56.54384658604987]</t>
+          <t>[33.332781496590876, 54.74993717169824]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>1.110223024625157e-14</v>
       </c>
       <c r="N3" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>1.110223024625157e-14</v>
       </c>
       <c r="O3" t="n">
-        <v>1.100658086843271</v>
+        <v>2.132131951084965</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.8616580451287321, 1.3396581285578106]</t>
+          <t>[1.8931319093704264, 2.371131992799503]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>63.03993850644318</v>
+        <v>61.22989757301215</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[57.168532806240194, 68.91134420664616]</t>
+          <t>[55.572140454835306, 66.88765469118898]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>20.94230230230274</v>
+        <v>17.06486486486526</v>
       </c>
       <c r="X3" t="n">
-        <v>19.97651651651693</v>
+        <v>16.08234234234272</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.90808808808854</v>
+        <v>18.0473873873878</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_7_square_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_7_square_01_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.65000000000057</v>
+        <v>25.53000000000055</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.846725704167068e-16</v>
+        <v>2.480945306424931e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>53.40149114864229</v>
+        <v>50.0877370107523</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[44.34173254075646, 62.46124975652811]</t>
+          <t>[40.80020412560248, 59.37526989590212]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.628973968528041</v>
+        <v>1.478026573760963</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.4402897250691948, 1.8176582119868874]</t>
+          <t>[1.2767633807381937, 1.6792897667837323]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>64.78791272394777</v>
+        <v>64.12290718500439</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[58.93545768119077, 70.64036776670477]</t>
+          <t>[58.25290604634826, 69.99290832366053]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>19.00000000000042</v>
+        <v>19.52444444444487</v>
       </c>
       <c r="X2" t="n">
-        <v>18.22972972973013</v>
+        <v>18.70666666666707</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.77027027027071</v>
+        <v>20.34222222222266</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.8300000000006</v>
+        <v>25.63000000000057</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,30 +661,30 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.846725704167068e-16</v>
+        <v>2.480945306424931e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>44.04135933414456</v>
+        <v>48.11552808674902</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[33.332781496590876, 54.74993717169824]</t>
+          <t>[39.3567981536482, 56.87425801984985]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1.110223024625157e-14</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.110223024625157e-14</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.132131951084965</v>
+        <v>1.528342372016656</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.8931319093704264, 2.371131992799503]</t>
+          <t>[1.3396581285578097, 1.7170266154755023]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>61.22989757301215</v>
+        <v>63.19114610521093</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[55.572140454835306, 66.88765469118898]</t>
+          <t>[57.58304306681172, 68.79924914361015]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>17.06486486486526</v>
+        <v>19.39567567567611</v>
       </c>
       <c r="X3" t="n">
-        <v>16.08234234234272</v>
+        <v>18.62600600600642</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.0473873873878</v>
+        <v>20.16534534534579</v>
       </c>
     </row>
   </sheetData>
